--- a/tables/crosstab/crosstab_app_time/revealed, VS outbreak.xlsx
+++ b/tables/crosstab/crosstab_app_time/revealed, VS outbreak.xlsx
@@ -471,40 +471,40 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
         <v>31</v>
       </c>
-      <c r="F2">
-        <v>32</v>
-      </c>
       <c r="G2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H2">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="I2">
-        <v>11.74</v>
+        <v>11.75</v>
       </c>
       <c r="J2">
-        <v>9.539999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="K2">
-        <v>7.58</v>
+        <v>7.5</v>
       </c>
       <c r="L2">
-        <v>7.82</v>
+        <v>7.75</v>
       </c>
       <c r="M2">
-        <v>43.28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -515,7 +515,7 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>18</v>
@@ -527,25 +527,25 @@
         <v>28</v>
       </c>
       <c r="G3">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3">
-        <v>4.16</v>
+        <v>4.25</v>
       </c>
       <c r="I3">
-        <v>7.58</v>
+        <v>7.5</v>
       </c>
       <c r="J3">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K3">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
-        <v>6.85</v>
+        <v>7</v>
       </c>
       <c r="M3">
-        <v>23.47</v>
+        <v>23.75</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -553,10 +553,10 @@
         <v>15</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>25</v>
@@ -568,22 +568,22 @@
         <v>27</v>
       </c>
       <c r="G4">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H4">
-        <v>6.85</v>
+        <v>6.5</v>
       </c>
       <c r="I4">
-        <v>10.27</v>
+        <v>10.25</v>
       </c>
       <c r="J4">
-        <v>6.11</v>
+        <v>6.25</v>
       </c>
       <c r="K4">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="L4">
-        <v>6.6</v>
+        <v>6.75</v>
       </c>
       <c r="M4">
         <v>33.25</v>
@@ -594,37 +594,37 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G5">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H5">
-        <v>17.6</v>
+        <v>17.25</v>
       </c>
       <c r="I5">
-        <v>29.58</v>
+        <v>29.5</v>
       </c>
       <c r="J5">
-        <v>20.05</v>
+        <v>20.25</v>
       </c>
       <c r="K5">
-        <v>11.49</v>
+        <v>11.5</v>
       </c>
       <c r="L5">
-        <v>21.27</v>
+        <v>21.5</v>
       </c>
       <c r="M5">
         <v>100</v>
